--- a/StructureDefinition-MedRecord-comp.xlsx
+++ b/StructureDefinition-MedRecord-comp.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$119</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3297" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4315" uniqueCount="443">
   <si>
     <t>Path</t>
   </si>
@@ -1362,10 +1362,24 @@
     <t>.component.section</t>
   </si>
   <si>
-    <t>generalView</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://www.hl7belgium.be/fhir/StructureDefinition/BePatient|https://www.hl7belgium.be/fhir/StructureDefinition/MedRecordTreatmentLine|https://www.hl7belgium.be/fhir/StructureDefinition/MedRecordTreatment|https://www.hl7belgium.be/fhir/StructureDefinition/MedRecordMedicationSummaryView)
+    <t>MedRecordTreatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://www.hl7belgium.be/fhir/StructureDefinition/MedRecordTreatment)
+</t>
+  </si>
+  <si>
+    <t>MedRecordTreatmentLine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://www.hl7belgium.be/fhir/StructureDefinition/MedRecordTreatmentLine)
+</t>
+  </si>
+  <si>
+    <t>MedRecordMedicationSummaryView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://www.hl7belgium.be/fhir/StructureDefinition/MedRecordMedicationSummaryView)
 </t>
   </si>
   <si>
@@ -1522,7 +1536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN91"/>
+  <dimension ref="A1:AN119"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1532,7 +1546,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.83203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.640625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -8792,7 +8806,7 @@
         <v>42</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>54</v>
@@ -10398,7 +10412,7 @@
         <v>42</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>54</v>
@@ -11989,8 +12003,3220 @@
         <v>41</v>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F112" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M112" s="2"/>
+      <c r="N112" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="113" hidden="true">
+      <c r="A113" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F113" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="N113" s="2"/>
+      <c r="O113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="114" hidden="true">
+      <c r="A114" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F114" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N114" s="2"/>
+      <c r="O114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P114" s="2"/>
+      <c r="Q114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="115" hidden="true">
+      <c r="A115" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F115" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P115" s="2"/>
+      <c r="Q115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="116" hidden="true">
+      <c r="A116" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F116" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="O116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P116" s="2"/>
+      <c r="Q116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117" hidden="true">
+      <c r="A117" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F117" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N117" s="2"/>
+      <c r="O117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P117" s="2"/>
+      <c r="Q117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="118" hidden="true">
+      <c r="A118" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F118" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="O118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P118" s="2"/>
+      <c r="Q118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="119" hidden="true">
+      <c r="A119" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F119" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N119" s="2"/>
+      <c r="O119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P119" s="2"/>
+      <c r="Q119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN119" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AN91">
+  <autoFilter ref="A1:AN119">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12000,7 +15226,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI90">
+  <conditionalFormatting sqref="A2:AI118">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-MedRecord-comp.xlsx
+++ b/StructureDefinition-MedRecord-comp.xlsx
@@ -1365,28 +1365,28 @@
     <t>MedRecordTreatment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/MedRecordTreatment)
+    <t xml:space="preserve">Reference(https://www.hl7belgium.be/fhir/StructureDefinition/MedRecordTreatment)
 </t>
   </si>
   <si>
     <t>MedRecordTreatmentLine</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/MedRecordTreatmentLine)
+    <t xml:space="preserve">Reference(https://www.hl7belgium.be/fhir/StructureDefinition/MedRecordTreatmentLine)
 </t>
   </si>
   <si>
     <t>MedRecordMedicationSummaryView</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/MedRecordMedicationSummaryView)
+    <t xml:space="preserve">Reference(https://www.hl7belgium.be/fhir/StructureDefinition/MedRecordMedicationSummaryView)
 </t>
   </si>
   <si>
     <t>detailsRecord</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/MedRecordUsage|http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/MedRecordOrder|http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/MedRecordDispense|http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/MedRecordAdministration|http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/MedRecordMedicationScheduledAdministration)
+    <t xml:space="preserve">Reference(https://www.hl7belgium.be/fhir/StructureDefinition/MedRecordUsage|https://www.hl7belgium.be/fhir/StructureDefinition/MedRecordOrder|https://www.hl7belgium.be/fhir/StructureDefinition/MedRecordDispense|https://www.hl7belgium.be/fhir/StructureDefinition/MedRecordAdministration|https://www.hl7belgium.be/fhir/StructureDefinition/MedRecordMedicationScheduledAdministration)
 </t>
   </si>
 </sst>

--- a/StructureDefinition-MedRecord-comp.xlsx
+++ b/StructureDefinition-MedRecord-comp.xlsx
@@ -1365,28 +1365,28 @@
     <t>MedRecordTreatment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://www.hl7belgium.be/fhir/StructureDefinition/MedRecordTreatment)
+    <t xml:space="preserve">Reference(http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/MedRecordTreatment)
 </t>
   </si>
   <si>
     <t>MedRecordTreatmentLine</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://www.hl7belgium.be/fhir/StructureDefinition/MedRecordTreatmentLine)
+    <t xml:space="preserve">Reference(http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/MedRecordTreatmentLine)
 </t>
   </si>
   <si>
     <t>MedRecordMedicationSummaryView</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://www.hl7belgium.be/fhir/StructureDefinition/MedRecordMedicationSummaryView)
+    <t xml:space="preserve">Reference(http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/MedRecordMedicationSummaryView)
 </t>
   </si>
   <si>
     <t>detailsRecord</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://www.hl7belgium.be/fhir/StructureDefinition/MedRecordUsage|https://www.hl7belgium.be/fhir/StructureDefinition/MedRecordOrder|https://www.hl7belgium.be/fhir/StructureDefinition/MedRecordDispense|https://www.hl7belgium.be/fhir/StructureDefinition/MedRecordAdministration|https://www.hl7belgium.be/fhir/StructureDefinition/MedRecordMedicationScheduledAdministration)
+    <t xml:space="preserve">Reference(http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/MedRecordUsage|http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/MedRecordOrder|http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/MedRecordDispense|http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/MedRecordAdministration|http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/MedRecordMedicationScheduledAdministration)
 </t>
   </si>
 </sst>
